--- a/result - 副本.xlsx
+++ b/result - 副本.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsy\Documents\Models\GIS-Combined-Transportation-V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsy\Documents\Models\GIS-Combined-Transportation-V4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED2775-6389-4BA8-B1F6-9672FB8C11C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7140F7-D4FA-4208-8561-06E95EC6AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="Truck" sheetId="3" r:id="rId3"/>
+    <sheet name="Area" sheetId="4" r:id="rId3"/>
+    <sheet name="Truck" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,6 +373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526EF8E7-DEE8-44BF-B31C-A979CD7A6700}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388ED130-FFB6-4C2C-A830-82EFFA611133}">
   <dimension ref="A1"/>
   <sheetViews>
